--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO111"/>
+  <dimension ref="A1:AO107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
@@ -688,31 +688,31 @@
         <v>1.35</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.67</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.54</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
         <v>1.41</v>
@@ -721,52 +721,52 @@
         <v>1.72</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
         <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
         <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G3" t="n">
         <v>6.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="I3" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -820,94 +820,94 @@
         <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>1.59</v>
+        <v>2.72</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB3" t="n">
         <v>26</v>
       </c>
-      <c r="AB3" t="n">
-        <v>30</v>
-      </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG3" t="n">
         <v>25</v>
       </c>
-      <c r="AF3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>30</v>
-      </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4">
@@ -955,7 +955,7 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -967,10 +967,10 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
         <v>1.5</v>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
         <v>70</v>
@@ -1039,10 +1039,10 @@
         <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G5" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H5" t="n">
         <v>2.44</v>
@@ -1090,7 +1090,7 @@
         <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1105,10 +1105,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>2.06</v>
@@ -1126,31 +1126,31 @@
         <v>1.57</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
         <v>24</v>
       </c>
       <c r="AA5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
         <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>14.5</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="H6" t="n">
-        <v>2.86</v>
+        <v>5.7</v>
       </c>
       <c r="I6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y6" t="n">
         <v>980</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="Z6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>980</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.09</v>
+        <v>2.38</v>
       </c>
       <c r="G7" t="n">
         <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="I7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X7" t="n">
         <v>980</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H8" t="n">
         <v>2.52</v>
@@ -1489,16 +1489,16 @@
         <v>2.58</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
         <v>5.6</v>
@@ -1507,16 +1507,16 @@
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
         <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T8" t="n">
         <v>1.52</v>
@@ -1528,7 +1528,7 @@
         <v>1.63</v>
       </c>
       <c r="W8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1552,28 +1552,28 @@
         <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
         <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>15.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="9">
@@ -1621,10 +1621,10 @@
         <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
         <v>4.6</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>4.3</v>
@@ -1762,7 +1762,7 @@
         <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H11" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
         <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>1.86</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>5.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2329,10 +2329,10 @@
         <v>2.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2347,10 +2347,10 @@
         <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AA14" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB14" t="n">
         <v>10</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H15" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.97</v>
+        <v>1.07</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
         <v>4.4</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
         <v>2.72</v>
       </c>
       <c r="H17" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
         <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
         <v>7.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="I19" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="G20" t="n">
-        <v>2.94</v>
+        <v>2.68</v>
       </c>
       <c r="H20" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="I20" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="G21" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>2.64</v>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="I23" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
         <v>2.06</v>
@@ -3649,10 +3649,10 @@
         <v>2.34</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3763,12 +3763,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4168,12 +4168,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G30" t="n">
         <v>4.5</v>
       </c>
       <c r="H30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I30" t="n">
         <v>1.96</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>3.75</v>
@@ -4468,31 +4468,31 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R30" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,64 +4501,64 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG30" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN30" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>65</v>
-      </c>
       <c r="AO30" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,61 +4573,61 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Gyori</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.97</v>
+        <v>3.75</v>
       </c>
       <c r="G31" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="H31" t="n">
-        <v>3.15</v>
+        <v>1.99</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>2.02</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -4636,58 +4636,58 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="32">
@@ -4708,61 +4708,61 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.62</v>
+        <v>2.24</v>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="H32" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="I32" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S32" t="n">
         <v>3.35</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="U32" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4771,58 +4771,58 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA32" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
         <v>15</v>
       </c>
       <c r="AE32" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF32" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AK32" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AL32" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AN32" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AO32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
@@ -4843,61 +4843,61 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.7</v>
+        <v>2.06</v>
       </c>
       <c r="G33" t="n">
-        <v>3.85</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="n">
-        <v>1.99</v>
+        <v>3.75</v>
       </c>
       <c r="I33" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
         <v>4.1</v>
       </c>
-      <c r="K33" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="S33" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="T33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U33" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4906,58 +4906,58 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="Z33" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AB33" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG33" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>16</v>
       </c>
       <c r="AH33" t="n">
         <v>15</v>
       </c>
       <c r="AI33" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AO33" t="n">
         <v>27</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>8.4</v>
       </c>
     </row>
     <row r="34">
@@ -4978,61 +4978,61 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I34" t="n">
         <v>3.75</v>
       </c>
-      <c r="I34" t="n">
-        <v>3.85</v>
-      </c>
       <c r="J34" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="P34" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="R34" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="S34" t="n">
-        <v>2.44</v>
+        <v>2.16</v>
       </c>
       <c r="T34" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="U34" t="n">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5041,58 +5041,58 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Y34" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Z34" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF34" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG34" t="n">
         <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI34" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AM34" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AN34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO34" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -5113,61 +5113,61 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.24</v>
+        <v>2.66</v>
       </c>
       <c r="G35" t="n">
-        <v>2.28</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="I35" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S35" t="n">
         <v>4</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.35</v>
-      </c>
       <c r="T35" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="U35" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5176,55 +5176,55 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL35" t="n">
         <v>48</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>36</v>
-      </c>
       <c r="AM35" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AN35" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AO35" t="n">
         <v>38</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,61 +5248,61 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Gyori</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="G36" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>2.98</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K36" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="R36" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5311,58 +5311,58 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="H37" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="I37" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="J37" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5530,19 +5530,19 @@
         <v>2.9</v>
       </c>
       <c r="G38" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H38" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="J38" t="n">
         <v>3.3</v>
       </c>
       <c r="K38" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,31 +5653,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="G39" t="n">
-        <v>4.8</v>
+        <v>2.24</v>
       </c>
       <c r="H39" t="n">
-        <v>1.96</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.14</v>
+        <v>5.6</v>
       </c>
       <c r="J39" t="n">
         <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.99</v>
+        <v>1.69</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5788,32 +5788,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.08</v>
+        <v>3.85</v>
       </c>
       <c r="G40" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="I40" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K40" t="n">
         <v>4.1</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5923,31 +5923,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.33</v>
+        <v>2.06</v>
       </c>
       <c r="G41" t="n">
-        <v>1.37</v>
+        <v>2.16</v>
       </c>
       <c r="H41" t="n">
-        <v>12</v>
+        <v>3.55</v>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
+        <v>4.3</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="K41" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.26</v>
+        <v>1.99</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,31 +6058,31 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FK Spartak</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="G42" t="n">
-        <v>1000</v>
+        <v>1.42</v>
       </c>
       <c r="H42" t="n">
-        <v>1.04</v>
+        <v>5.4</v>
       </c>
       <c r="I42" t="n">
         <v>1000</v>
       </c>
       <c r="J42" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="K42" t="n">
-        <v>950</v>
+        <v>9.6</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,31 +6193,31 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="G43" t="n">
-        <v>2.12</v>
+        <v>1.36</v>
       </c>
       <c r="H43" t="n">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="I43" t="n">
+        <v>13</v>
+      </c>
+      <c r="J43" t="n">
         <v>5.6</v>
       </c>
-      <c r="J43" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.63</v>
+        <v>2.34</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.99</v>
+        <v>1.67</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6328,31 +6328,31 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="G44" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="H44" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="I44" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="J44" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K44" t="n">
-        <v>9.6</v>
+        <v>6.2</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,61 +6463,61 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="G45" t="n">
-        <v>13</v>
+        <v>5.4</v>
       </c>
       <c r="H45" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>1.3</v>
       </c>
-      <c r="I45" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="J45" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K45" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N45" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2.16</v>
-      </c>
       <c r="Q45" t="n">
-        <v>1.82</v>
+        <v>2.86</v>
       </c>
       <c r="R45" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6526,58 +6526,58 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6598,61 +6598,61 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.92</v>
+        <v>3.55</v>
       </c>
       <c r="G46" t="n">
-        <v>1.94</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="n">
-        <v>4.2</v>
+        <v>2.14</v>
       </c>
       <c r="I46" t="n">
-        <v>4.4</v>
+        <v>2.16</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K46" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P46" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="R46" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="S46" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="T46" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U46" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6661,58 +6661,58 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB46" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>960</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AC46" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AF46" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI46" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AJ46" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AK46" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="AL46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN46" t="n">
         <v>34</v>
       </c>
-      <c r="AM46" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>12</v>
-      </c>
       <c r="AO46" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="47">
@@ -6733,37 +6733,37 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.55</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>3.65</v>
+        <v>2.02</v>
       </c>
       <c r="H47" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="I47" t="n">
-        <v>2.16</v>
+        <v>4.3</v>
       </c>
       <c r="J47" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K47" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
         <v>4.6</v>
@@ -6772,22 +6772,22 @@
         <v>1.26</v>
       </c>
       <c r="P47" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R47" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S47" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T47" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="U47" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -6796,58 +6796,58 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y47" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AA47" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AC47" t="n">
         <v>8.4</v>
       </c>
       <c r="AD47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG47" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE47" t="n">
+      <c r="AH47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK47" t="n">
         <v>20</v>
       </c>
-      <c r="AF47" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>40</v>
-      </c>
       <c r="AL47" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AM47" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AO47" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
@@ -6868,61 +6868,61 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="G48" t="n">
-        <v>2.04</v>
+        <v>13.5</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="I48" t="n">
-        <v>4.3</v>
+        <v>1.31</v>
       </c>
       <c r="J48" t="n">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="K48" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O48" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P48" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R48" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S48" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T48" t="n">
-        <v>1.71</v>
+        <v>2.42</v>
       </c>
       <c r="U48" t="n">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -6931,58 +6931,58 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>17.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z48" t="n">
-        <v>32</v>
+        <v>6.8</v>
       </c>
       <c r="AA48" t="n">
-        <v>95</v>
+        <v>9.6</v>
       </c>
       <c r="AB48" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AI48" t="n">
         <v>55</v>
       </c>
       <c r="AJ48" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AK48" t="n">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="AL48" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN48" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>44</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="49">
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G49" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H49" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I49" t="n">
         <v>4.9</v>
@@ -7039,25 +7039,25 @@
         <v>3.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P49" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R49" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S49" t="n">
         <v>4.2</v>
       </c>
       <c r="T49" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U49" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>12</v>
       </c>
       <c r="Y49" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z49" t="n">
         <v>36</v>
@@ -7078,7 +7078,7 @@
         <v>980</v>
       </c>
       <c r="AB49" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC49" t="n">
         <v>8</v>
@@ -7087,10 +7087,10 @@
         <v>20</v>
       </c>
       <c r="AE49" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF49" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG49" t="n">
         <v>10.5</v>
@@ -7099,7 +7099,7 @@
         <v>23</v>
       </c>
       <c r="AI49" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="n">
         <v>22</v>
@@ -7117,13 +7117,13 @@
         <v>17</v>
       </c>
       <c r="AO49" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,31 +7138,31 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Olympiakos Nicosia FC</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.65</v>
+        <v>2.3</v>
       </c>
       <c r="G50" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
-        <v>2.34</v>
+        <v>2.76</v>
       </c>
       <c r="I50" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="J50" t="n">
-        <v>2.34</v>
+        <v>2.92</v>
       </c>
       <c r="K50" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.3</v>
+        <v>1.64</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,61 +7273,61 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>1.92</v>
       </c>
       <c r="H51" t="n">
-        <v>2.76</v>
+        <v>4.4</v>
       </c>
       <c r="I51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K51" t="n">
         <v>4</v>
       </c>
-      <c r="J51" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5</v>
-      </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P51" t="n">
-        <v>1.63</v>
+        <v>2.08</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7336,64 +7336,64 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,31 +7408,31 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>FK Spartak</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.46</v>
+        <v>2.16</v>
       </c>
       <c r="G52" t="n">
-        <v>1.69</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="I52" t="n">
-        <v>22</v>
+        <v>4.3</v>
       </c>
       <c r="J52" t="n">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
       <c r="K52" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G53" t="n">
         <v>2.06</v>
@@ -7690,19 +7690,19 @@
         <v>1.35</v>
       </c>
       <c r="G54" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H54" t="n">
         <v>10</v>
       </c>
       <c r="I54" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
         <v>5.8</v>
       </c>
       <c r="K54" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7726,10 +7726,10 @@
         <v>1.57</v>
       </c>
       <c r="S54" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T54" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U54" t="n">
         <v>1.9</v>
@@ -7747,7 +7747,7 @@
         <v>36</v>
       </c>
       <c r="Z54" t="n">
-        <v>990</v>
+        <v>100</v>
       </c>
       <c r="AA54" t="n">
         <v>410</v>
@@ -7759,22 +7759,22 @@
         <v>13.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE54" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF54" t="n">
         <v>8.4</v>
       </c>
       <c r="AG54" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH54" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ54" t="n">
         <v>11</v>
@@ -7792,13 +7792,13 @@
         <v>5.2</v>
       </c>
       <c r="AO54" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,31 +7813,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.7</v>
+        <v>1.54</v>
       </c>
       <c r="G55" t="n">
-        <v>5.2</v>
+        <v>1.65</v>
       </c>
       <c r="H55" t="n">
-        <v>2.08</v>
+        <v>4.8</v>
       </c>
       <c r="I55" t="n">
-        <v>2.58</v>
+        <v>7.6</v>
       </c>
       <c r="J55" t="n">
-        <v>2.88</v>
+        <v>4.6</v>
       </c>
       <c r="K55" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.54</v>
+        <v>2.48</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G56" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H56" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I56" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J56" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K56" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8083,31 +8083,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.49</v>
+        <v>3.4</v>
       </c>
       <c r="G57" t="n">
-        <v>1.76</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>1.09</v>
+        <v>2.1</v>
       </c>
       <c r="I57" t="n">
-        <v>9.4</v>
+        <v>2.54</v>
       </c>
       <c r="J57" t="n">
-        <v>4.6</v>
+        <v>2.92</v>
       </c>
       <c r="K57" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G58" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="H58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J58" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K58" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8251,28 +8251,28 @@
         <v>1.02</v>
       </c>
       <c r="N58" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O58" t="n">
         <v>1.13</v>
       </c>
       <c r="P58" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q58" t="n">
         <v>1.4</v>
       </c>
       <c r="R58" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S58" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T58" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U58" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -8281,46 +8281,46 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y58" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z58" t="n">
         <v>140</v>
       </c>
       <c r="AA58" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AB58" t="n">
         <v>14.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AE58" t="n">
         <v>170</v>
       </c>
       <c r="AF58" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG58" t="n">
         <v>12</v>
       </c>
       <c r="AH58" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI58" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ58" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL58" t="n">
         <v>30</v>
@@ -8329,7 +8329,7 @@
         <v>120</v>
       </c>
       <c r="AN58" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO58" t="n">
         <v>1000</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="G59" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="J59" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K59" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>1.16</v>
       </c>
       <c r="G60" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H60" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="I60" t="n">
-        <v>1000</v>
+        <v>1.32</v>
       </c>
       <c r="J60" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="K60" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G61" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H61" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I61" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K61" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>1.58</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G62" t="n">
         <v>4.7</v>
       </c>
       <c r="H62" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="I62" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J62" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K62" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="H63" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="I63" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J63" t="n">
         <v>2.98</v>
       </c>
-      <c r="J63" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K63" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9148,7 +9148,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9163,61 +9163,61 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.9</v>
+        <v>1.93</v>
       </c>
       <c r="G65" t="n">
-        <v>5.7</v>
+        <v>1.95</v>
       </c>
       <c r="H65" t="n">
-        <v>1.81</v>
+        <v>4.9</v>
       </c>
       <c r="I65" t="n">
-        <v>1.98</v>
+        <v>5.1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K65" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P65" t="n">
-        <v>2.32</v>
+        <v>1.75</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -9226,58 +9226,58 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z65" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG65" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK65" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL65" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM65" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN65" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
@@ -9298,31 +9298,31 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="G66" t="n">
-        <v>2.32</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
-        <v>3.2</v>
+        <v>1.82</v>
       </c>
       <c r="I66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J66" t="n">
         <v>4.1</v>
       </c>
-      <c r="J66" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K66" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>2.08</v>
+        <v>1.09</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9433,31 +9433,31 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.27</v>
+        <v>2.12</v>
       </c>
       <c r="G67" t="n">
-        <v>1.45</v>
+        <v>2.26</v>
       </c>
       <c r="H67" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I67" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="J67" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="K67" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9472,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="G68" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="H68" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>15.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K68" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9607,10 +9607,10 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9703,61 +9703,61 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.93</v>
+        <v>8.4</v>
       </c>
       <c r="G69" t="n">
-        <v>1.95</v>
+        <v>19</v>
       </c>
       <c r="H69" t="n">
-        <v>4.9</v>
+        <v>1.26</v>
       </c>
       <c r="I69" t="n">
-        <v>5.1</v>
+        <v>1.33</v>
       </c>
       <c r="J69" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="K69" t="n">
-        <v>3.55</v>
+        <v>7</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.24</v>
+        <v>1.55</v>
       </c>
       <c r="R69" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -9766,64 +9766,64 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB69" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG69" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH69" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI69" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AJ69" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AK69" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL69" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM69" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN69" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AO69" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9838,28 +9838,28 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Partizan Belgrade</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3.85</v>
+        <v>1.98</v>
       </c>
       <c r="G70" t="n">
         <v>1000</v>
       </c>
       <c r="H70" t="n">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="I70" t="n">
-        <v>1.35</v>
+        <v>2.02</v>
       </c>
       <c r="J70" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="K70" t="n">
         <v>950</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G71" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H71" t="n">
         <v>1.18</v>
@@ -9994,7 +9994,7 @@
         <v>1000</v>
       </c>
       <c r="J71" t="n">
-        <v>1.09</v>
+        <v>4.7</v>
       </c>
       <c r="K71" t="n">
         <v>950</v>
@@ -10093,7 +10093,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10108,31 +10108,31 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Partizan Belgrade</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="G72" t="n">
-        <v>1000</v>
+        <v>1.43</v>
       </c>
       <c r="H72" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="I72" t="n">
         <v>1000</v>
       </c>
       <c r="J72" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="K72" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10228,7 +10228,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -10243,61 +10243,61 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.84</v>
+        <v>2.16</v>
       </c>
       <c r="G73" t="n">
-        <v>2.88</v>
+        <v>2.28</v>
       </c>
       <c r="H73" t="n">
-        <v>2.62</v>
+        <v>4.1</v>
       </c>
       <c r="I73" t="n">
-        <v>2.66</v>
+        <v>4.6</v>
       </c>
       <c r="J73" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="K73" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2.24</v>
+        <v>1.47</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.78</v>
+        <v>2.72</v>
       </c>
       <c r="R73" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -10306,64 +10306,64 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z73" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AA73" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AF73" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG73" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH73" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI73" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AJ73" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AK73" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL73" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM73" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN73" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AO73" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10378,127 +10378,127 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.24</v>
+        <v>2.84</v>
       </c>
       <c r="G74" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O74" t="n">
         <v>1.25</v>
       </c>
-      <c r="H74" t="n">
+      <c r="P74" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG74" t="n">
         <v>12.5</v>
       </c>
-      <c r="I74" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>8</v>
-      </c>
-      <c r="K74" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N74" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P74" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R74" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S74" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U74" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V74" t="n">
-        <v>0</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" t="n">
+      <c r="AH74" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM74" t="n">
         <v>65</v>
       </c>
-      <c r="Y74" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>480</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN74" t="n">
-        <v>2.8</v>
+        <v>22</v>
       </c>
       <c r="AO74" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10513,127 +10513,127 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="G75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H75" t="n">
+        <v>13</v>
+      </c>
+      <c r="I75" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K75" t="n">
+        <v>8</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N75" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>480</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI75" t="n">
         <v>1000</v>
       </c>
-      <c r="H75" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J75" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" t="n">
-        <v>0</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0</v>
-      </c>
-      <c r="V75" t="n">
-        <v>0</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0</v>
-      </c>
-      <c r="X75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ75" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK75" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AL75" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AM75" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN75" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AO75" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10648,61 +10648,61 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.9</v>
+        <v>1.17</v>
       </c>
       <c r="G76" t="n">
-        <v>2.98</v>
+        <v>1.23</v>
       </c>
       <c r="H76" t="n">
-        <v>2.94</v>
+        <v>1.11</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="J76" t="n">
-        <v>3.05</v>
+        <v>7.2</v>
       </c>
       <c r="K76" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.58</v>
+        <v>1.34</v>
       </c>
       <c r="R76" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -10711,64 +10711,64 @@
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AA76" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AB76" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC76" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE76" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF76" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH76" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI76" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK76" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AL76" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM76" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AN76" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AO76" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10783,61 +10783,61 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.16</v>
+        <v>2.9</v>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>2.98</v>
       </c>
       <c r="H77" t="n">
-        <v>4.1</v>
+        <v>2.94</v>
       </c>
       <c r="I77" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K77" t="n">
         <v>3.1</v>
       </c>
-      <c r="K77" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P77" t="n">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -10846,58 +10846,58 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI77" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK77" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL77" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM77" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN77" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO77" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G78" t="n">
         <v>2.24</v>
       </c>
       <c r="H78" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
         <v>4.6</v>
       </c>
       <c r="J78" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K78" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.09</v>
+        <v>1.63</v>
       </c>
       <c r="Q78" t="n">
         <v>2.32</v>
@@ -11038,7 +11038,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11053,31 +11053,31 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G79" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I79" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="J79" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="K79" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11173,7 +11173,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11188,31 +11188,31 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>2.66</v>
       </c>
       <c r="H80" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="I80" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="J80" t="n">
-        <v>2.46</v>
+        <v>3.35</v>
       </c>
       <c r="K80" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -11227,10 +11227,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.3</v>
+        <v>1.94</v>
       </c>
       <c r="Q80" t="n">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -11323,31 +11323,31 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="G81" t="n">
-        <v>2.72</v>
+        <v>2.28</v>
       </c>
       <c r="H81" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I81" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="K81" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.15</v>
+        <v>2.36</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11443,7 +11443,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -11458,61 +11458,61 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.76</v>
+        <v>2.72</v>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H82" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="I82" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="J82" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="K82" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>2.6</v>
+        <v>1.31</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.54</v>
+        <v>3.05</v>
       </c>
       <c r="R82" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
@@ -11521,64 +11521,64 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z82" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA82" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB82" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC82" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE82" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF82" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG82" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH82" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI82" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ82" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL82" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM82" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN82" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AO82" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -11593,61 +11593,61 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Estoril Praia</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.44</v>
+        <v>1.76</v>
       </c>
       <c r="G83" t="n">
-        <v>2.62</v>
+        <v>1.79</v>
       </c>
       <c r="H83" t="n">
-        <v>2.88</v>
+        <v>4.6</v>
       </c>
       <c r="I83" t="n">
-        <v>3.15</v>
+        <v>4.9</v>
       </c>
       <c r="J83" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K83" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P83" t="n">
-        <v>1.94</v>
+        <v>2.7</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.89</v>
+        <v>1.54</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -11656,58 +11656,58 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z83" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA83" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB83" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD83" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF83" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG83" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI83" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ83" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM83" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO83" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84">
@@ -11737,22 +11737,22 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="G84" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H84" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="I84" t="n">
-        <v>2.96</v>
+        <v>2.64</v>
       </c>
       <c r="J84" t="n">
         <v>2.9</v>
       </c>
       <c r="K84" t="n">
-        <v>950</v>
+        <v>3.6</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -11767,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>1.06</v>
+        <v>1.73</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11848,7 +11848,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -11863,31 +11863,31 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="Q85" t="n">
         <v>1.01</v>
@@ -11983,7 +11983,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -11998,127 +11998,127 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P86" t="n">
-        <v>1.06</v>
+        <v>3.65</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA86" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AB86" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE86" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AF86" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH86" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI86" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ86" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK86" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL86" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM86" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN86" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AO86" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -12133,127 +12133,127 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Tecnico Universitario</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Mushuc Runa</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.33</v>
+        <v>2.24</v>
       </c>
       <c r="G87" t="n">
-        <v>1.41</v>
+        <v>2.92</v>
       </c>
       <c r="H87" t="n">
-        <v>7.8</v>
+        <v>2.72</v>
       </c>
       <c r="I87" t="n">
-        <v>10.5</v>
+        <v>3.9</v>
       </c>
       <c r="J87" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="K87" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="L87" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>3.75</v>
+        <v>1.61</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.29</v>
+        <v>2.02</v>
       </c>
       <c r="R87" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Z87" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AB87" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AC87" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AE87" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AF87" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AG87" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI87" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ87" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AL87" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM87" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="AO87" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -12268,32 +12268,32 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tecnico Universitario</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.22</v>
+        <v>2.88</v>
       </c>
       <c r="G88" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="H88" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="I88" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K88" t="n">
         <v>4</v>
       </c>
-      <c r="J88" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K88" t="n">
-        <v>5.9</v>
-      </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
@@ -12307,10 +12307,10 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -12388,7 +12388,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -12403,31 +12403,31 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.82</v>
+        <v>1.44</v>
       </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="H89" t="n">
-        <v>2.38</v>
+        <v>6.4</v>
       </c>
       <c r="I89" t="n">
-        <v>2.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J89" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="K89" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>2.04</v>
+        <v>2.84</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.77</v>
+        <v>1.43</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12523,7 +12523,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -12533,37 +12533,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.37</v>
+        <v>1.93</v>
       </c>
       <c r="G90" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="H90" t="n">
-        <v>2.64</v>
+        <v>3.65</v>
       </c>
       <c r="I90" t="n">
-        <v>24</v>
+        <v>4.1</v>
       </c>
       <c r="J90" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K90" t="n">
         <v>4.4</v>
       </c>
-      <c r="K90" t="n">
-        <v>1000</v>
-      </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.05</v>
+        <v>2.14</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12658,7 +12658,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -12673,28 +12673,28 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="G91" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="H91" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="I91" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="J91" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="K91" t="n">
         <v>4.4</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q91" t="n">
         <v>1.61</v>
@@ -12793,7 +12793,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -12808,31 +12808,31 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="G92" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="I92" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="J92" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K92" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12847,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>2.36</v>
+        <v>1.66</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.6</v>
+        <v>1.99</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12928,7 +12928,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -12938,66 +12938,66 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Charlotte FC</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.82</v>
+        <v>7.4</v>
       </c>
       <c r="G93" t="n">
-        <v>1.84</v>
+        <v>7.8</v>
       </c>
       <c r="H93" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K93" t="n">
         <v>4.4</v>
       </c>
-      <c r="I93" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>4</v>
-      </c>
-      <c r="K93" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P93" t="n">
-        <v>2.34</v>
+        <v>1.92</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V93" t="n">
         <v>0</v>
@@ -13006,64 +13006,64 @@
         <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z93" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA93" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD93" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE93" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG93" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH93" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI93" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ93" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AK93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AM93" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -13073,36 +13073,36 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="G94" t="n">
-        <v>2.58</v>
+        <v>1.88</v>
       </c>
       <c r="H94" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="I94" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="J94" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K94" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -13117,10 +13117,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -13198,7 +13198,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -13208,66 +13208,66 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>7.2</v>
+        <v>1.68</v>
       </c>
       <c r="G95" t="n">
-        <v>7.6</v>
+        <v>1.69</v>
       </c>
       <c r="H95" t="n">
-        <v>1.59</v>
+        <v>5.3</v>
       </c>
       <c r="I95" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="J95" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K95" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N95" t="n">
-        <v>3.65</v>
+        <v>5.7</v>
       </c>
       <c r="O95" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="P95" t="n">
-        <v>1.88</v>
+        <v>2.62</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="R95" t="n">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="S95" t="n">
-        <v>3.75</v>
+        <v>2.48</v>
       </c>
       <c r="T95" t="n">
-        <v>2.08</v>
+        <v>1.66</v>
       </c>
       <c r="U95" t="n">
-        <v>1.81</v>
+        <v>2.42</v>
       </c>
       <c r="V95" t="n">
         <v>0</v>
@@ -13276,58 +13276,58 @@
         <v>0</v>
       </c>
       <c r="X95" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH95" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y95" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z95" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF95" t="n">
+      <c r="AI95" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM95" t="n">
         <v>70</v>
       </c>
-      <c r="AG95" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>320</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>200</v>
-      </c>
       <c r="AN95" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO95" t="n">
-        <v>9.800000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96">
@@ -13396,7 +13396,7 @@
         <v>1.92</v>
       </c>
       <c r="S96" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T96" t="n">
         <v>2.02</v>
@@ -13411,10 +13411,10 @@
         <v>0</v>
       </c>
       <c r="X96" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Y96" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z96" t="n">
         <v>190</v>
@@ -13426,7 +13426,7 @@
         <v>13</v>
       </c>
       <c r="AC96" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD96" t="n">
         <v>60</v>
@@ -13438,10 +13438,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG96" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH96" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI96" t="n">
         <v>1000</v>
@@ -13450,10 +13450,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK96" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL96" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM96" t="n">
         <v>1000</v>
@@ -13462,13 +13462,13 @@
         <v>3.15</v>
       </c>
       <c r="AO96" t="n">
-        <v>310</v>
+        <v>980</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -13478,66 +13478,66 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.83</v>
+        <v>5.1</v>
       </c>
       <c r="G97" t="n">
-        <v>1.88</v>
+        <v>5.6</v>
       </c>
       <c r="H97" t="n">
-        <v>4.7</v>
+        <v>1.72</v>
       </c>
       <c r="I97" t="n">
-        <v>5.4</v>
+        <v>1.76</v>
       </c>
       <c r="J97" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K97" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P97" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V97" t="n">
         <v>0</v>
@@ -13546,64 +13546,64 @@
         <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y97" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z97" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AA97" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB97" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC97" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD97" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE97" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF97" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG97" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH97" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI97" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ97" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AK97" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL97" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM97" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN97" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AO97" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -13613,66 +13613,66 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K98" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
         <v>1.68</v>
       </c>
-      <c r="G98" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H98" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K98" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N98" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O98" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P98" t="n">
-        <v>2.62</v>
-      </c>
       <c r="Q98" t="n">
-        <v>1.59</v>
+        <v>2.12</v>
       </c>
       <c r="R98" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="V98" t="n">
         <v>0</v>
@@ -13681,64 +13681,64 @@
         <v>0</v>
       </c>
       <c r="X98" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z98" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA98" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB98" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC98" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD98" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE98" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF98" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG98" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AH98" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI98" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ98" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK98" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL98" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AM98" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN98" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AO98" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -13748,66 +13748,66 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F99" t="n">
+        <v>8</v>
+      </c>
+      <c r="G99" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K99" t="n">
         <v>5.2</v>
       </c>
-      <c r="G99" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J99" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
         <v>2.14</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="R99" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
@@ -13816,64 +13816,64 @@
         <v>0</v>
       </c>
       <c r="X99" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y99" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z99" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA99" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AB99" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AC99" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AD99" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE99" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF99" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AG99" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH99" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI99" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AJ99" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AK99" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL99" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM99" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN99" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO99" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -13883,36 +13883,36 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="G100" t="n">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="H100" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I100" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.72</v>
+        <v>3.35</v>
       </c>
       <c r="K100" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -13927,10 +13927,10 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14008,7 +14008,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -14018,36 +14018,36 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>7.4</v>
+        <v>3.25</v>
       </c>
       <c r="G101" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
-        <v>1.45</v>
+        <v>2.16</v>
       </c>
       <c r="I101" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="J101" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="K101" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -14062,10 +14062,10 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14143,7 +14143,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -14153,36 +14153,36 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14197,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14278,7 +14278,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -14288,36 +14288,36 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3.25</v>
+        <v>1.66</v>
       </c>
       <c r="G103" t="n">
-        <v>3.85</v>
+        <v>2.02</v>
       </c>
       <c r="H103" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="I103" t="n">
-        <v>2.32</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J103" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K103" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14332,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14413,7 +14413,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -14423,36 +14423,36 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14548,7 +14548,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -14558,36 +14558,36 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>El Nacional</t>
+          <t>Nacional (Uru)</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="G105" t="n">
-        <v>2.06</v>
+        <v>13</v>
       </c>
       <c r="H105" t="n">
-        <v>1.95</v>
+        <v>1.41</v>
       </c>
       <c r="I105" t="n">
-        <v>11.5</v>
+        <v>1.5</v>
       </c>
       <c r="J105" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="K105" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -14602,10 +14602,10 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q105" t="n">
         <v>1.84</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>1.69</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14683,7 +14683,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -14693,132 +14693,132 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.34</v>
+        <v>4.7</v>
       </c>
       <c r="G106" t="n">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>1.63</v>
       </c>
       <c r="I106" t="n">
-        <v>3.15</v>
+        <v>1.79</v>
       </c>
       <c r="J106" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K106" t="n">
-        <v>3.95</v>
+        <v>5.1</v>
       </c>
       <c r="L106" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="R106" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="V106" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y106" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z106" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AA106" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB106" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC106" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD106" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE106" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF106" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AG106" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH106" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AI106" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ106" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK106" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL106" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM106" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AN106" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AO106" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -14828,36 +14828,36 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="G107" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="H107" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="I107" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="J107" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="K107" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -14948,546 +14948,6 @@
       </c>
       <c r="AO107" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2025-11-01</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Cerro</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Nacional (Uru)</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K108" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0</v>
-      </c>
-      <c r="P108" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0</v>
-      </c>
-      <c r="S108" t="n">
-        <v>0</v>
-      </c>
-      <c r="T108" t="n">
-        <v>0</v>
-      </c>
-      <c r="U108" t="n">
-        <v>0</v>
-      </c>
-      <c r="V108" t="n">
-        <v>0</v>
-      </c>
-      <c r="W108" t="n">
-        <v>0</v>
-      </c>
-      <c r="X108" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y108" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2025-11-01</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Libertad</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Olimpia</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G109" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K109" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0</v>
-      </c>
-      <c r="P109" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R109" t="n">
-        <v>0</v>
-      </c>
-      <c r="S109" t="n">
-        <v>0</v>
-      </c>
-      <c r="T109" t="n">
-        <v>0</v>
-      </c>
-      <c r="U109" t="n">
-        <v>0</v>
-      </c>
-      <c r="V109" t="n">
-        <v>0</v>
-      </c>
-      <c r="W109" t="n">
-        <v>0</v>
-      </c>
-      <c r="X109" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2025-11-01</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Atlas</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="G110" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K110" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0</v>
-      </c>
-      <c r="P110" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R110" t="n">
-        <v>0</v>
-      </c>
-      <c r="S110" t="n">
-        <v>0</v>
-      </c>
-      <c r="T110" t="n">
-        <v>0</v>
-      </c>
-      <c r="U110" t="n">
-        <v>0</v>
-      </c>
-      <c r="V110" t="n">
-        <v>0</v>
-      </c>
-      <c r="W110" t="n">
-        <v>0</v>
-      </c>
-      <c r="X110" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2025-11-01</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Nashville SC</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Inter Miami CF</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G111" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K111" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L111" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M111" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N111" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O111" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P111" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R111" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S111" t="n">
-        <v>2</v>
-      </c>
-      <c r="T111" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U111" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="V111" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W111" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO111" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
